--- a/Cuadros/q13_external_funding.xlsx
+++ b/Cuadros/q13_external_funding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C66EB0-950E-46B4-AED5-6981645D2993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3840DC-086B-4416-9F92-398CEE5F99C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q13" sheetId="1" r:id="rId1"/>
@@ -536,10 +536,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -648,7 +648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -731,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -805,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1211,10 +1211,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Cuadros/q13_external_funding.xlsx
+++ b/Cuadros/q13_external_funding.xlsx
@@ -14,12 +14,13 @@
     <sheet name="q13_q9" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="q13_q10" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="q13_q10_media" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="q13_region" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">q13_ext_funding</t>
   </si>
@@ -145,6 +146,27 @@
   </si>
   <si>
     <t xml:space="preserve">(i) &gt; 1000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. South West Asia/Middle East &amp; North Africa</t>
   </si>
 </sst>
 </file>
@@ -1413,4 +1435,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>154</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>887</v>
+      </c>
+      <c r="C3" t="n">
+        <v>304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>316</v>
+      </c>
+      <c r="G3" t="n">
+        <v>204</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>